--- a/data/trans_bre/IP18A05-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP18A05-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 0,0</t>
+          <t>-8,44; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 1,54</t>
+          <t>-3,1; 1,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,04</t>
+          <t>0,0; 8,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-58,47; 0,0</t>
+          <t>-52,71; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 1,55</t>
+          <t>-0,25; 1,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 1,54</t>
+          <t>-0,58; 1,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 0,58</t>
+          <t>-2,2; 0,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 2,28</t>
+          <t>-8,4; 2,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-63,8; 728,78</t>
+          <t>-66,85; 673,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-81,78; 75,86</t>
+          <t>-81,93; 71,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 285,92</t>
+          <t>-100,0; 214,73</t>
         </is>
       </c>
     </row>
@@ -973,17 +973,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 0,09</t>
+          <t>-4,39; -0,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 1,45</t>
+          <t>-1,76; 1,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,47; 14,39</t>
+          <t>1,54; 16,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 180,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,82</t>
+          <t>-0,74; 0,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,59</t>
+          <t>-1,14; 0,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 0,76</t>
+          <t>-1,36; 0,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 2,19</t>
+          <t>-6,14; 2,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,85; 345,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-72,24; 101,19</t>
+          <t>-72,22; 97,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-65,72; 95,82</t>
+          <t>-66,94; 112,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-89,86; 141,94</t>
+          <t>-87,11; 134,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP18A05-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP18A05-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-20,36</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,68%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,97; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,99; 1,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,4; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-20,39</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>131,9%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-20,68%</t>
+          <t>57,64%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-37,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-51,79%</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 0,0</t>
+          <t>-0,3; 1,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 1,55</t>
+          <t>-0,49; 1,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,16</t>
+          <t>-2,22; 0,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-52,71; 0,0</t>
+          <t>-7,39; 1,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,75; 643,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,3; 86,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>5,7</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>131,9%</t>
+          <t>48,78%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>57,64%</t>
+          <t>-80,42%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-37,34%</t>
+          <t>-9,14%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-52,06%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 1,64</t>
+          <t>-0,69; 2,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 1,37</t>
+          <t>-4,68; -0,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 0,67</t>
+          <t>-1,67; 1,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 2,25</t>
+          <t>1,51; 15,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,24 +893,24 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-66,85; 673,21</t>
+          <t>-100,0; 136,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-81,93; 71,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 214,73</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,53</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>48,78%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-80,42%</t>
+          <t>-24,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-9,14%</t>
+          <t>-18,5%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-33,54%</t>
         </is>
       </c>
     </row>
@@ -968,156 +968,55 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 2,06</t>
+          <t>-0,63; 0,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,39; -0,13</t>
+          <t>-1,18; 0,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 1,49</t>
+          <t>-1,32; 0,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,54; 16,32</t>
+          <t>-6,51; 2,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,28; 418,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,94; 98,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,93; 126,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,06; 125,86</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,06</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,27</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-1,55</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>9,77%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-24,12%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-18,5%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-34,99%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,74; 0,74</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,14; 0,57</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,36; 0,88</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-6,14; 2,48</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-79,85; 345,96</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-72,22; 97,87</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-66,94; 112,85</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-87,11; 134,37</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
